--- a/Neutrophils_data.xlsx
+++ b/Neutrophils_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0000C68-6686-406B-A524-654EF11E443C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F6318-0545-4741-802D-B45BAC3674E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1800" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subpopulations" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,18 @@
   <definedNames>
     <definedName name="ref_mass">Turnover!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +75,7 @@
     <author>מחבר</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{78337B17-4BB3-4E00-9A08-B0AEFC1C7D35}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{78337B17-4BB3-4E00-9A08-B0AEFC1C7D35}">
       <text>
         <r>
           <rPr>
@@ -80,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{0FFD89A0-5B79-44B0-AB00-4434D9E23E85}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{0FFD89A0-5B79-44B0-AB00-4434D9E23E85}">
       <text>
         <r>
           <rPr>
@@ -98,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <r>
       <t>sub-population [10</t>
@@ -263,13 +271,16 @@
   <si>
     <t>post mitotic pool</t>
   </si>
+  <si>
+    <t>post-mitotic transit time delta [d]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -361,40 +372,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -427,6 +413,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -452,6 +457,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -598,29 +612,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3EBC647-4D6C-4272-A06A-08D3F3FDC21C}" name="טבלה2" displayName="טבלה2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3EBC647-4D6C-4272-A06A-08D3F3FDC21C}" name="טבלה2" displayName="טבלה2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:F5" xr:uid="{50FAD044-5740-40F4-B89F-D3C2E9E500A6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EF1CF88B-88B4-4321-A3B4-1AF5E557973D}" name="sub-population [109cells/kg]" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{83C54E6C-4C30-4AEE-BF73-A33367787C82}" name="Athens et al.,1961" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D047EADF-BE69-4A50-AC39-D6F860352CA6}" name="Dancey et al.,1976" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{ED99412D-9CAA-462A-8246-E2E0BAB52F1C}" name="Tak et al.,2013" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{6DF04BE2-A013-47BA-8D9A-55D839BFC0A7}" name="Lahoz-beneytez et al.,2016" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{79B298AA-87FC-4E0D-BEAA-75F991F315DC}" name="Harrison ,1962" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EF1CF88B-88B4-4321-A3B4-1AF5E557973D}" name="sub-population [109cells/kg]" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{83C54E6C-4C30-4AEE-BF73-A33367787C82}" name="Athens et al.,1961" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D047EADF-BE69-4A50-AC39-D6F860352CA6}" name="Dancey et al.,1976" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{ED99412D-9CAA-462A-8246-E2E0BAB52F1C}" name="Tak et al.,2013" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6DF04BE2-A013-47BA-8D9A-55D839BFC0A7}" name="Lahoz-beneytez et al.,2016" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{79B298AA-87FC-4E0D-BEAA-75F991F315DC}" name="Harrison ,1962" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D45B8FC3-6918-461C-838D-FE08EE909996}" name="NeutSources" displayName="NeutSources" ref="J1:M12" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D45B8FC3-6918-461C-838D-FE08EE909996}" name="NeutSources" displayName="NeutSources" ref="J1:M12" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="J1:M12" xr:uid="{B3E1A663-8BAB-4EEA-B484-C54497A6C3F4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E59CB7AA-2DB3-4537-9C19-94B99CA4BBC0}" name="index">
       <calculatedColumnFormula>"[" &amp; ROW() -ROW(NeutSources[[#Headers],[index]])&amp; "]"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{37C52892-FBB1-4EE3-91B5-AA240B043962}" name="source"/>
-    <tableColumn id="3" xr3:uid="{42ADF7CC-53D1-440B-9D9B-B9BF8C4B0DF9}" name="year" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{42ADF7CC-53D1-440B-9D9B-B9BF8C4B0DF9}" name="year" dataDxfId="10">
       <calculatedColumnFormula>VALUE(MID(NeutSources[[#This Row],[source]],IFERROR(FIND("19",NeutSources[[#This Row],[source]]),FIND("20",NeutSources[[#This Row],[source]])),4))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{443293CD-2382-4C94-8672-A9F07D89151D}" name="abbr.">
@@ -632,13 +646,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1FFD42E4-C455-4CFF-9B0A-1C7F1A747406}" name="טבלה26" displayName="טבלה26" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:F10" xr:uid="{E85093CE-39C7-41CD-9E14-3F007686DB26}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0DAE46F9-BD1C-42AB-A7E8-C914C1A193F9}" name="source" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CEE892ED-718B-4370-BD0E-866C8308381D}" name="half life [h]" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{2FA3D072-BC72-40B8-9950-86CFBC85C383}" name="lifespan [h]" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{B6334385-CDA3-43B4-AF4A-2248FEC8938F}" name="post-mitotic transit time [d]" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1FFD42E4-C455-4CFF-9B0A-1C7F1A747406}" name="טבלה26" displayName="טבלה26" ref="A1:G10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:G10" xr:uid="{E85093CE-39C7-41CD-9E14-3F007686DB26}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0DAE46F9-BD1C-42AB-A7E8-C914C1A193F9}" name="source" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CEE892ED-718B-4370-BD0E-866C8308381D}" name="half life [h]" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{2FA3D072-BC72-40B8-9950-86CFBC85C383}" name="lifespan [h]" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{B6334385-CDA3-43B4-AF4A-2248FEC8938F}" name="post-mitotic transit time [d]" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1BC499D3-7F61-4303-9371-D07BFC571C9C}" name="post-mitotic transit time delta [d]" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{C60D7C2E-339E-465E-8F92-A17F1539A912}" name="production [10^10 cell/d]"/>
     <tableColumn id="3" xr3:uid="{AFD4FDAE-343B-475B-93F0-DD73CDD811E5}" name="method" dataDxfId="3"/>
   </tableColumns>
@@ -647,14 +662,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A8A6D171-088D-4A9A-9B51-E270825EBB25}" name="NeutSources7" displayName="NeutSources7" ref="M1:P11" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="M1:P11" xr:uid="{3D471283-8647-4239-8928-D434F12887D0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A8A6D171-088D-4A9A-9B51-E270825EBB25}" name="NeutSources7" displayName="NeutSources7" ref="N1:Q11" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="N1:Q11" xr:uid="{3D471283-8647-4239-8928-D434F12887D0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D870FE66-FB80-41D4-BCEF-B9CB314F069F}" name="index">
       <calculatedColumnFormula>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{48C8A392-412D-4E09-BA57-54D47E4416BB}" name="source"/>
-    <tableColumn id="3" xr3:uid="{CBB13AE8-8F7F-4BB2-A5B7-2C466B7FD0EC}" name="year" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{CBB13AE8-8F7F-4BB2-A5B7-2C466B7FD0EC}" name="year" dataDxfId="1">
       <calculatedColumnFormula>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{2E62326F-33A7-4F25-9D5B-3CB9B22B79FA}" name="abbr.">
@@ -930,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,24 +1251,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367D2D93-047A-483E-B710-6E2B56F44EA6}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="4" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -1267,27 +1282,30 @@
         <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="M1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1297,27 +1315,28 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="M2" s="1" t="str">
+      <c r="I2" s="1"/>
+      <c r="N2" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[1]</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>1961</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Athens et al.,1961</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1327,27 +1346,28 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="M3" s="1" t="str">
+      <c r="I3" s="1"/>
+      <c r="N3" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[2]</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>1964</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Cartwright et al.,1964</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -1356,31 +1376,32 @@
       <c r="D4" s="2">
         <v>6.6</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="2"/>
+      <c r="F4" s="14">
         <f>0.87*10^9 * 70/ 10^10</f>
         <v>6.09</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="M4" s="1" t="str">
+      <c r="I4" s="2"/>
+      <c r="N4" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[3]</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>1976</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Dancey et al.,1976</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -1389,60 +1410,62 @@
       <c r="D5" s="2">
         <v>6.6</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="2"/>
+      <c r="F5" s="14">
         <f>1.62*10^9 * 70 /10^10</f>
         <v>11.34</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="M5" s="1" t="str">
+      <c r="I5" s="2"/>
+      <c r="N5" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[4]</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>2008</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="13">
+      <c r="E6" s="1"/>
+      <c r="F6" s="13">
         <f>120*10^9/10^10</f>
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="N6" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[5]</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>2002</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Fliedner et al.,2002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1452,26 +1475,27 @@
         <v>129.60000000000002</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="13"/>
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="N7" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[6]</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>2010</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Pillay et al.,2010</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1485,26 +1509,29 @@
       <c r="D8" s="1">
         <v>5.8</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="N8" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[7]</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>2011</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Turner et al.,2011</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1515,26 +1542,29 @@
       <c r="D9" s="1">
         <v>5.7</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="N9" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[8]</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>2013</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Tak et al.,2013</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1545,38 +1575,41 @@
       <c r="D10" s="1">
         <v>5.7</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="N10" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[9]</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>2016</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Lahoz-beneytez et al.,2016</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="M11" s="1" t="str">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="N11" s="1" t="str">
         <f>"[" &amp; ROW() -ROW(NeutSources7[[#Headers],[index]])&amp; "]"</f>
         <v>[10]</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <f>VALUE(MID(NeutSources7[[#This Row],[source]],IFERROR(FIND("19",NeutSources7[[#This Row],[source]]),FIND("20",NeutSources7[[#This Row],[source]])),4))</f>
         <v>1993</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>LEFT(NeutSources7[[#This Row],[source]],FIND(" ",NeutSources7[[#This Row],[source]])) &amp; "et al.," &amp;NeutSources7[[#This Row],[year]]</f>
         <v>Ting-Beall et al.,1993</v>
       </c>
